--- a/Paolo/Código Final/Bases Finales/Informes_2022.xlsx
+++ b/Paolo/Código Final/Bases Finales/Informes_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Final\Bases Finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Código Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FCBF8-210E-410B-BF8C-9CBD435573AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2DD86E-72BE-407E-BBDF-A8E13D4C9773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3655,7 +3655,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45707.371947453707" refreshedVersion="8" recordCount="354" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45707.463759722224" refreshedVersion="8" recordCount="354" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R355" sheet="Componentes"/>
   </cacheSource>
@@ -10902,7 +10902,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Hoja1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Hoja1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:A96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -11516,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:V355"/>
     </sheetView>
   </sheetViews>

--- a/Paolo/Código Final/Bases Finales/Informes_2022.xlsx
+++ b/Paolo/Código Final/Bases Finales/Informes_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Código Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2DD86E-72BE-407E-BBDF-A8E13D4C9773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A71868-E8AA-4C29-85F5-1F327E666B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3655,7 +3655,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45707.463759722224" refreshedVersion="8" recordCount="354" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45707.70863912037" refreshedVersion="8" recordCount="354" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R355" sheet="Componentes"/>
   </cacheSource>
@@ -11517,7 +11517,7 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:V355"/>
     </sheetView>
   </sheetViews>

--- a/Paolo/Código Final/Bases Finales/Informes_2022.xlsx
+++ b/Paolo/Código Final/Bases Finales/Informes_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Código Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA1EE9-D831-4E67-93F2-0C3DF3BFC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CB98F-A34E-405E-80C7-4A9DB9579664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -3640,7 +3640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45707.868666782408" refreshedVersion="8" recordCount="354" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45715.650305439813" refreshedVersion="8" recordCount="354" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R355" sheet="Componentes"/>
   </cacheSource>
@@ -11501,7 +11501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:V355"/>
     </sheetView>
@@ -45112,7 +45112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
